--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>01250002</t>
+    <t>01250005</t>
   </si>
   <si>
     <t>N/A</t>
@@ -67,7 +67,7 @@
     <t>SERVEUR</t>
   </si>
   <si>
-    <t>p10</t>
+    <t>p02</t>
   </si>
   <si>
     <t/>
@@ -82,40 +82,7 @@
     <t>created id</t>
   </si>
   <si>
-    <t>878c6bae-b754-4577-b614-69e15821dac8</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>01250004</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>Jabea gaetan</t>
-  </si>
-  <si>
     <t>PENDING</t>
-  </si>
-  <si>
-    <t>01250001</t>
-  </si>
-  <si>
-    <t>Cedric ghutter</t>
-  </si>
-  <si>
-    <t>01250005</t>
-  </si>
-  <si>
-    <t>p02</t>
-  </si>
-  <si>
-    <t>01250003</t>
-  </si>
-  <si>
-    <t>p01</t>
   </si>
 </sst>
 </file>
@@ -493,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -557,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45685.54534658565</v>
+        <v>45685.70517439814</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -580,175 +547,11 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1">
-        <v>45685.647437465275</v>
-      </c>
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45685.68250826389</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45771.41666666667</v>
-      </c>
-      <c r="H3" s="1">
-        <v>46108.45833333333</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45685.536354814816</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45688.45833333333</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45688.45833333333</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1">
-        <v>45685.54312717593</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45685.70517439814</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45685.65972866898</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1">
-        <v>45685.68096587963</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NumRef</t>
   </si>
@@ -56,33 +56,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>01250005</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>SERVEUR</t>
-  </si>
-  <si>
-    <t>p02</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>db6e5c90-be6b-4929-8d1a-d85d8d65866a</t>
-  </si>
-  <si>
-    <t>user id</t>
-  </si>
-  <si>
-    <t>created id</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -118,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -519,41 +491,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45685.70517439814</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,31 +58,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>01250005</t>
+    <t>02250002</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>SERVEUR</t>
-  </si>
-  <si>
-    <t>p02</t>
+    <t>LAMPADAIRE</t>
+  </si>
+  <si>
+    <t>P04</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>db6e5c90-be6b-4929-8d1a-d85d8d65866a</t>
+    <t>Jabea gaetan</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>02250001</t>
   </si>
   <si>
     <t>user id</t>
   </si>
   <si>
-    <t>created id</t>
-  </si>
-  <si>
-    <t>PENDING</t>
+    <t>878c6bae-b754-4577-b614-69e15821dac8</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -524,7 +527,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45685.70517439814</v>
+        <v>45696.67854782408</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -541,17 +544,58 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1">
+        <v>45696.67867173611</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" s="1">
+        <v>45696.43001462963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45696.43032023148</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>NumRef</t>
   </si>
@@ -73,7 +73,7 @@
     <t/>
   </si>
   <si>
-    <t>Jabea gaetan</t>
+    <t>878c6bae-b754-4577-b614-69e15821dac8</t>
   </si>
   <si>
     <t>CLOSED</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>user id</t>
-  </si>
-  <si>
-    <t>878c6bae-b754-4577-b614-69e15821dac8</t>
   </si>
 </sst>
 </file>
@@ -589,10 +586,10 @@
         <v>45696.43032023148</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>NumRef</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>02250003</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ECLAIRAGE EXTERIEUR</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>Mise en maintenance</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>0237a803-e675-49df-9d7b-25f2b329704b</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -91,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -491,6 +516,38 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45712.41756395833</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,28 +58,43 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02250003</t>
+    <t>02250002</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>ECLAIRAGE EXTERIEUR</t>
+    <t>LAMPADAIRE</t>
   </si>
   <si>
     <t>P04</t>
   </si>
   <si>
-    <t>Mise en maintenance</t>
+    <t/>
+  </si>
+  <si>
+    <t>878c6bae-b754-4577-b614-69e15821dac8</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>02250001</t>
   </si>
   <si>
     <t>user id</t>
   </si>
   <si>
+    <t>02250004</t>
+  </si>
+  <si>
+    <t>SALLE DE CONFERENCE ROOM</t>
+  </si>
+  <si>
+    <t>db6e5c90-be6b-4929-8d1a-d85d8d65866a</t>
+  </si>
+  <si>
     <t>0237a803-e675-49df-9d7b-25f2b329704b</t>
-  </si>
-  <si>
-    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -457,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -521,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45712.41756395833</v>
+        <v>45696.67854782408</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -541,11 +556,96 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="1">
+        <v>45696.67867173611</v>
+      </c>
       <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45696.43001462963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45696.43032023148</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45713.53404412037</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45713.53435780093</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,43 +58,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>02250002</t>
+    <t>02250003</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>LAMPADAIRE</t>
+    <t>ECLAIRAGE EXTERIEUR</t>
   </si>
   <si>
     <t>P04</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>878c6bae-b754-4577-b614-69e15821dac8</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>02250001</t>
+    <t>Mise en maintenance</t>
   </si>
   <si>
     <t>user id</t>
   </si>
   <si>
-    <t>02250004</t>
-  </si>
-  <si>
-    <t>SALLE DE CONFERENCE ROOM</t>
-  </si>
-  <si>
-    <t>db6e5c90-be6b-4929-8d1a-d85d8d65866a</t>
-  </si>
-  <si>
     <t>0237a803-e675-49df-9d7b-25f2b329704b</t>
+  </si>
+  <si>
+    <t>EN ATTENTE</t>
   </si>
 </sst>
 </file>
@@ -472,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -536,7 +521,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45696.67854782408</v>
+        <v>45712.41756395833</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -556,96 +541,11 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1">
-        <v>45696.67867173611</v>
-      </c>
       <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45696.43001462963</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1">
-        <v>45696.43032023148</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45713.53404412037</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1">
-        <v>45713.53435780093</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>NumRef</t>
   </si>
@@ -40,10 +40,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>Maintenancier</t>
-  </si>
-  <si>
-    <t>Chef de guerite</t>
+    <t>Intervenant</t>
+  </si>
+  <si>
+    <t>Initiateur</t>
   </si>
   <si>
     <t>Date de cloture</t>
@@ -52,34 +52,73 @@
     <t>Créé par</t>
   </si>
   <si>
-    <t>Édité par</t>
+    <t>Cloturé par</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>02250003</t>
+    <t>03250016</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>ECLAIRAGE EXTERIEUR</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>Mise en maintenance</t>
-  </si>
-  <si>
-    <t>user id</t>
+    <t>AIRE DE PESEES</t>
+  </si>
+  <si>
+    <t>SALLE DE CONFERENCE ROOM</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>0237a803-e675-49df-9d7b-25f2b329704b</t>
   </si>
   <si>
-    <t>EN ATTENTE</t>
+    <t>Admin User</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>03250019</t>
+  </si>
+  <si>
+    <t>03250013</t>
+  </si>
+  <si>
+    <t>HASSAN IBRAHIM  MALAM</t>
+  </si>
+  <si>
+    <t>03250020</t>
+  </si>
+  <si>
+    <t>03250012</t>
+  </si>
+  <si>
+    <t>SERGE EYENGA MESSI</t>
+  </si>
+  <si>
+    <t>03250017</t>
+  </si>
+  <si>
+    <t>03250007</t>
+  </si>
+  <si>
+    <t>03250018</t>
+  </si>
+  <si>
+    <t>deleted__03250008__2025-03-18T14:56:20.937Z</t>
+  </si>
+  <si>
+    <t>SALLE D'ATTENTE NIVEAU 1</t>
+  </si>
+  <si>
+    <t>Something happened</t>
+  </si>
+  <si>
+    <t>FATAHOU MOUHIDINE NCHEROLIAGNIGNI</t>
   </si>
 </sst>
 </file>
@@ -457,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -521,7 +560,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45712.41756395833</v>
+        <v>45734.41488488426</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -541,10 +580,159 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="1">
+        <v>45734.415305752314</v>
+      </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
       <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45734.752714131944</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45735.22049237268</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45734.760756006945</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45734.414886053244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45734.438369814816</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,16 +58,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>03250016</t>
+    <t>03250001</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>AIRE DE PESEES</t>
-  </si>
-  <si>
-    <t>SALLE DE CONFERENCE ROOM</t>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>P02</t>
   </si>
   <si>
     <t/>
@@ -79,46 +79,16 @@
     <t>Admin User</t>
   </si>
   <si>
+    <t>EN ATTENTE</t>
+  </si>
+  <si>
+    <t>03250002</t>
+  </si>
+  <si>
+    <t>This is an identified problem</t>
+  </si>
+  <si>
     <t>CLOTURE</t>
-  </si>
-  <si>
-    <t>03250019</t>
-  </si>
-  <si>
-    <t>03250013</t>
-  </si>
-  <si>
-    <t>HASSAN IBRAHIM  MALAM</t>
-  </si>
-  <si>
-    <t>03250020</t>
-  </si>
-  <si>
-    <t>03250012</t>
-  </si>
-  <si>
-    <t>SERGE EYENGA MESSI</t>
-  </si>
-  <si>
-    <t>03250017</t>
-  </si>
-  <si>
-    <t>03250007</t>
-  </si>
-  <si>
-    <t>03250018</t>
-  </si>
-  <si>
-    <t>deleted__03250008__2025-03-18T14:56:20.937Z</t>
-  </si>
-  <si>
-    <t>SALLE D'ATTENTE NIVEAU 1</t>
-  </si>
-  <si>
-    <t>Something happened</t>
-  </si>
-  <si>
-    <t>FATAHOU MOUHIDINE NCHEROLIAGNIGNI</t>
   </si>
 </sst>
 </file>
@@ -496,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -560,7 +530,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45734.41488488426</v>
+        <v>45736.41596935185</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -574,14 +544,17 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
+      <c r="G2" s="1">
+        <v>45743.45833333333</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45747.41666666667</v>
+      </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" s="1">
-        <v>45734.415305752314</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
@@ -595,13 +568,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>45734.752714131944</v>
+        <v>45736.43796039352</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -610,16 +583,16 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="1">
-        <v>45735.22049237268</v>
+        <v>45736.43920467593</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -628,112 +601,7 @@
         <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45734.760756006945</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45734.414886053244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45734.438369814816</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/exports/maintenances_report.xlsx
+++ b/exports/maintenances_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>NumRef</t>
   </si>
@@ -58,22 +58,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>03250001</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>P02</t>
+    <t>06250006</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>06250001</t>
+  </si>
+  <si>
+    <t>SALLE D'ATTENTE NIVEAU 1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0237a803-e675-49df-9d7b-25f2b329704b</t>
+    <t>N/C</t>
   </si>
   <si>
     <t>Admin User</t>
@@ -82,13 +82,16 @@
     <t>EN ATTENTE</t>
   </si>
   <si>
-    <t>03250002</t>
-  </si>
-  <si>
-    <t>This is an identified problem</t>
+    <t>06250007</t>
+  </si>
+  <si>
+    <t>SALLE DE CONFERENCE ROOM</t>
   </si>
   <si>
     <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>06250003</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -530,30 +533,24 @@
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>45736.41596935185</v>
+        <v>45820.34789040509</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1">
-        <v>45743.45833333333</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45747.41666666667</v>
-      </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
@@ -568,31 +565,25 @@
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>45736.43796039352</v>
+        <v>45820.63681650463</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1">
-        <v>45736.43920467593</v>
+        <v>45820.64248148148</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -602,6 +593,38 @@
       </c>
       <c r="O3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45819.60005408565</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
